--- a/GEO/C094_Pellicci.GEO_metadata.xlsx
+++ b/GEO/C094_Pellicci.GEO_metadata.xlsx
@@ -2262,7 +2262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="253">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2349,6 +2349,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daniel,G,Pellicci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis,Perrimen</t>
   </si>
   <si>
     <t xml:space="preserve">Peter,F,Hickey</t>
@@ -3732,7 +3735,7 @@
   <dimension ref="A1:L106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3845,22 +3848,24 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10"/>
+      <c r="B14" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="9"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
@@ -3876,10 +3881,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
@@ -3887,10 +3892,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -3898,10 +3903,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" s="9"/>
       <c r="J18" s="7"/>
@@ -3909,10 +3914,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9"/>
       <c r="J19" s="7"/>
@@ -3920,10 +3925,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="9"/>
       <c r="J20" s="7"/>
@@ -3931,10 +3936,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" s="9"/>
       <c r="J21" s="7"/>
@@ -3942,10 +3947,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" s="9"/>
       <c r="J22" s="7"/>
@@ -3960,7 +3965,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="9"/>
@@ -3969,17 +3974,17 @@
     </row>
     <row r="25" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B27" s="14"/>
       <c r="C27" s="14"/>
@@ -3992,229 +3997,229 @@
     </row>
     <row r="28" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B28" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E28" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
       <c r="H29" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4225,17 +4230,17 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -4244,7 +4249,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -4253,7 +4258,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -4262,7 +4267,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -4271,10 +4276,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4282,51 +4287,51 @@
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="50" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="21" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="20"/>
@@ -4335,10 +4340,10 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" s="20"/>
       <c r="J56" s="20"/>
@@ -4346,10 +4351,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B57" s="20" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="20"/>
       <c r="J57" s="20"/>
@@ -4357,10 +4362,10 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B58" s="20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C58" s="20"/>
       <c r="J58" s="20"/>
@@ -4368,10 +4373,10 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B59" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C59" s="20"/>
       <c r="J59" s="20"/>
@@ -4379,10 +4384,10 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C60" s="20"/>
       <c r="J60" s="20"/>
@@ -4397,100 +4402,100 @@
     </row>
     <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,428 +4503,428 @@
     </row>
     <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D74" s="22"/>
     </row>
     <row r="75" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C75" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E75" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F75" s="23"/>
     </row>
     <row r="76" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="77" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>114</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="78" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="85" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="91" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="93" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="94" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="95" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="96" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="97" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B97" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -4958,7 +4963,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5034,7 +5039,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -5046,7 +5051,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -5058,7 +5063,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -5070,7 +5075,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="7"/>
@@ -5082,7 +5087,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="7"/>
@@ -5091,7 +5096,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
@@ -5109,7 +5114,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
@@ -5119,17 +5124,17 @@
     </row>
     <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -5142,201 +5147,201 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5344,20 +5349,20 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C28" s="20"/>
       <c r="J28" s="20"/>
@@ -5366,10 +5371,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C29" s="20"/>
       <c r="J29" s="20"/>
@@ -5378,10 +5383,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C30" s="20"/>
       <c r="J30" s="20"/>
@@ -5390,10 +5395,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="20"/>
       <c r="J31" s="20"/>
@@ -5402,10 +5407,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5413,54 +5418,54 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5470,10 +5475,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" s="20"/>
       <c r="J42" s="20"/>
@@ -5482,10 +5487,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C43" s="20"/>
       <c r="J43" s="20"/>
@@ -5494,10 +5499,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C44" s="20"/>
       <c r="J44" s="20"/>
@@ -5514,100 +5519,100 @@
     </row>
     <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="48" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5619,119 +5624,119 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" s="22"/>
     </row>
     <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" s="23"/>
     </row>
     <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>197</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -5770,7 +5775,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5839,7 +5844,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -5850,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -5861,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -5872,7 +5877,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="9"/>
@@ -5883,7 +5888,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="9"/>
@@ -5894,7 +5899,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C14" s="9"/>
       <c r="J14" s="9"/>
@@ -5905,7 +5910,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C15" s="9"/>
       <c r="J15" s="7"/>
@@ -5916,7 +5921,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
@@ -5924,10 +5929,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -5942,7 +5947,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -5951,17 +5956,17 @@
     </row>
     <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -5974,87 +5979,87 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>144</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -6062,132 +6067,132 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="20"/>
@@ -6196,7 +6201,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6205,10 +6210,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C33" s="20"/>
       <c r="J33" s="20"/>
@@ -6216,10 +6221,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C34" s="20"/>
       <c r="J34" s="20"/>
@@ -6227,10 +6232,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6238,51 +6243,51 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -6291,10 +6296,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C45" s="20"/>
       <c r="J45" s="20"/>
@@ -6302,10 +6307,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C46" s="20"/>
       <c r="J46" s="20"/>
@@ -6313,10 +6318,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C47" s="20"/>
       <c r="J47" s="20"/>
@@ -6331,78 +6336,78 @@
     </row>
     <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6412,224 +6417,224 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D59" s="22"/>
     </row>
     <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F60" s="23"/>
     </row>
     <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>248</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>247</v>
       </c>
       <c r="F62" s="25"/>
     </row>
     <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F63" s="25"/>
     </row>
     <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F64" s="25"/>
     </row>
     <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>

--- a/GEO/C094_Pellicci.GEO_metadata.xlsx
+++ b/GEO/C094_Pellicci.GEO_metadata.xlsx
@@ -128,11 +128,10 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="0"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">"Firstname,Initial,Lastname".
@@ -152,12 +151,29 @@
             <family val="2"/>
             <charset val="1"/>
           </rPr>
+          <t xml:space="preserve">"Firstname,Initial,Lastname".
+Example: "John,H,Smith" or "Jane,Doe". 
+Each contributor on a separate line, add as many contributor lines as required.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A17" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b val="true"/>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
           <t xml:space="preserve">[optional] 
 If you submit a matrix table containing processed data for all samples, include the file name here.</t>
         </r>
       </text>
     </comment>
-    <comment ref="A17" authorId="0">
+    <comment ref="A18" authorId="0">
       <text>
         <r>
           <rPr>
@@ -173,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A18" authorId="0">
+    <comment ref="A19" authorId="0">
       <text>
         <r>
           <rPr>
@@ -189,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A19" authorId="0">
+    <comment ref="A20" authorId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A20" authorId="0">
+    <comment ref="A21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -221,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A21" authorId="0">
+    <comment ref="A22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -237,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A22" authorId="0">
+    <comment ref="A23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,7 +269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A28" authorId="0">
+    <comment ref="A29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A42" authorId="0">
+    <comment ref="A43" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,7 +299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A43" authorId="0">
+    <comment ref="A44" authorId="0">
       <text>
         <r>
           <rPr>
@@ -298,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A44" authorId="0">
+    <comment ref="A45" authorId="0">
       <text>
         <r>
           <rPr>
@@ -313,7 +329,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A45" authorId="0">
+    <comment ref="A46" authorId="0">
       <text>
         <r>
           <rPr>
@@ -328,7 +344,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A46" authorId="0">
+    <comment ref="A47" authorId="0">
       <text>
         <r>
           <rPr>
@@ -367,7 +383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A51" authorId="0">
+    <comment ref="A52" authorId="0">
       <text>
         <r>
           <rPr>
@@ -388,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A52" authorId="0">
+    <comment ref="A53" authorId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A53" authorId="0">
+    <comment ref="A54" authorId="0">
       <text>
         <r>
           <rPr>
@@ -430,7 +446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A54" authorId="0">
+    <comment ref="A55" authorId="0">
       <text>
         <r>
           <rPr>
@@ -451,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A55" authorId="0">
+    <comment ref="A56" authorId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A56" authorId="0">
+    <comment ref="A57" authorId="0">
       <text>
         <r>
           <rPr>
@@ -488,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A57" authorId="0">
+    <comment ref="A58" authorId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A58" authorId="0">
+    <comment ref="A59" authorId="0">
       <text>
         <r>
           <rPr>
@@ -520,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A59" authorId="0">
+    <comment ref="A60" authorId="0">
       <text>
         <r>
           <rPr>
@@ -536,7 +552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A60" authorId="0">
+    <comment ref="A61" authorId="0">
       <text>
         <r>
           <rPr>
@@ -552,7 +568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B28" authorId="0">
+    <comment ref="B29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -567,7 +583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B64" authorId="0">
+    <comment ref="B65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -582,7 +598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B75" authorId="0">
+    <comment ref="B76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -610,7 +626,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C28" authorId="0">
+    <comment ref="C29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -625,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C64" authorId="0">
+    <comment ref="C65" authorId="0">
       <text>
         <r>
           <rPr>
@@ -641,7 +657,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C75" authorId="0">
+    <comment ref="C76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -657,7 +673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D28" authorId="0">
+    <comment ref="D29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -672,7 +688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D75" authorId="0">
+    <comment ref="D76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E28" authorId="0">
+    <comment ref="E29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E75" authorId="0">
+    <comment ref="E76" authorId="0">
       <text>
         <r>
           <rPr>
@@ -766,7 +782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F28" authorId="0">
+    <comment ref="F29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -781,7 +797,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G28" authorId="0">
+    <comment ref="G29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -796,7 +812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H28" authorId="0">
+    <comment ref="H29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -811,7 +827,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0">
+    <comment ref="I29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -827,7 +843,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J28" authorId="0">
+    <comment ref="J29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -843,7 +859,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K28" authorId="0">
+    <comment ref="K29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -860,7 +876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L28" authorId="0">
+    <comment ref="L29" authorId="0">
       <text>
         <r>
           <rPr>
@@ -2262,7 +2278,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="254">
   <si>
     <t xml:space="preserve"># High-throughput sequencing metadata template. (Version: April 28, 2020)</t>
   </si>
@@ -2355,6 +2371,9 @@
   </si>
   <si>
     <t xml:space="preserve">Peter,F,Hickey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William,Wing,Ho,Ho</t>
   </si>
   <si>
     <t xml:space="preserve">supplementary file</t>
@@ -3411,7 +3430,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3475,6 +3494,13 @@
       <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -3732,10 +3758,10 @@
     <tabColor rgb="FFFF00FF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L106"/>
+  <dimension ref="A1:L107"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3870,29 +3896,29 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="10"/>
+      <c r="B15" s="10" t="s">
+        <v>14</v>
+      </c>
       <c r="C15" s="9"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>15</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B16" s="10"/>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>16</v>
@@ -3903,7 +3929,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>17</v>
@@ -3914,7 +3940,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>18</v>
@@ -3925,7 +3951,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>19</v>
@@ -3936,7 +3962,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>20</v>
@@ -3947,7 +3973,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>21</v>
@@ -3956,296 +3982,298 @@
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11"/>
-      <c r="B23" s="10"/>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>22</v>
+      </c>
       <c r="C23" s="9"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="7"/>
+      <c r="A24" s="11"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="9"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+    <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="6" t="s">
         <v>23</v>
       </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
     </row>
     <row r="26" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-    </row>
-    <row r="28" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="15" t="s">
+    </row>
+    <row r="28" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+    </row>
+    <row r="29" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="D28" s="16" t="s">
+      <c r="C29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E28" s="15" t="s">
+      <c r="D29" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H28" s="15" t="s">
+      <c r="E29" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="F29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="I29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K28" s="15" t="s">
+      <c r="J29" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="L28" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="K29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K29" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>39</v>
+      <c r="L29" s="15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
       <c r="H30" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="L30" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
       <c r="H31" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L32" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="L33" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="L33" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="L34" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="L36" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H37" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="17" t="s">
+      <c r="B38" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K37" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L37" s="1" t="s">
+      <c r="H38" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K38" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="18"/>
-    </row>
-    <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L38" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="18"/>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+      <c r="A40" s="18"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="19" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="11" t="s">
+    <row r="42" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="11" t="s">
@@ -4257,7 +4285,7 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="11" t="s">
         <v>76</v>
       </c>
       <c r="B44" s="20"/>
@@ -4278,20 +4306,24 @@
       <c r="A46" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B46" s="20" t="s">
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+    </row>
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="8"/>
+      <c r="B47" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="12" t="s">
+      <c r="A48" s="8"/>
+    </row>
+    <row r="49" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -4300,61 +4332,55 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="8" t="s">
+    <row r="51" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B53" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>88</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="20"/>
       <c r="J56" s="20"/>
       <c r="K56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>89</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>90</v>
       </c>
       <c r="C57" s="20"/>
       <c r="J57" s="20"/>
@@ -4362,7 +4388,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B58" s="20" t="s">
         <v>91</v>
@@ -4373,7 +4399,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B59" s="20" t="s">
         <v>92</v>
@@ -4384,60 +4410,60 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B60" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B60" s="20" t="s">
         <v>93</v>
       </c>
       <c r="C60" s="20"/>
       <c r="J60" s="20"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="8"/>
-      <c r="B61" s="10"/>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>94</v>
+      </c>
       <c r="C61" s="20"/>
       <c r="J61" s="20"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
+    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="20"/>
+    </row>
+    <row r="63" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="12" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="23" t="s">
+    <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B64" s="23" t="s">
+    </row>
+    <row r="65" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="B65" s="23" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="65" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B65" s="10" t="s">
+      <c r="C65" s="24" t="s">
         <v>99</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="66" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>101</v>
@@ -4445,10 +4471,10 @@
     </row>
     <row r="67" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C67" s="10" t="s">
         <v>102</v>
@@ -4456,10 +4482,10 @@
     </row>
     <row r="68" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C68" s="10" t="s">
         <v>103</v>
@@ -4467,10 +4493,10 @@
     </row>
     <row r="69" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C69" s="10" t="s">
         <v>104</v>
@@ -4478,10 +4504,10 @@
     </row>
     <row r="70" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" s="10" t="s">
         <v>105</v>
@@ -4489,96 +4515,90 @@
     </row>
     <row r="71" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C71" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="72" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="12" t="s">
+    <row r="72" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
+    <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D74" s="22"/>
-    </row>
-    <row r="75" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B75" s="23" t="s">
+    </row>
+    <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="D75" s="22"/>
+    </row>
+    <row r="76" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="B76" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="D75" s="23" t="s">
-        <v>109</v>
-      </c>
-      <c r="E75" s="23" t="s">
+      <c r="C76" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="D76" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="F75" s="23"/>
-    </row>
-    <row r="76" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B76" s="10" t="s">
+      <c r="E76" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="C76" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="D76" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>114</v>
-      </c>
+      <c r="F76" s="23"/>
     </row>
     <row r="77" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="10" t="s">
         <v>59</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E77" s="10" t="s">
         <v>115</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="78" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C78" s="10" t="s">
         <v>116</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="79" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4586,33 +4606,33 @@
         <v>63</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" s="10" t="s">
         <v>117</v>
       </c>
       <c r="D79" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="80" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C80" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="81" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4620,33 +4640,33 @@
         <v>67</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>119</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>120</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4654,33 +4674,33 @@
         <v>71</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>121</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="84" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="10" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>122</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4688,33 +4708,33 @@
         <v>39</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>123</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="86" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>124</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="87" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4722,33 +4742,33 @@
         <v>43</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>125</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="88" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C88" s="10" t="s">
         <v>126</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="89" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4756,33 +4776,33 @@
         <v>47</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C89" s="10" t="s">
         <v>127</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="90" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="10" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C90" s="10" t="s">
         <v>128</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="91" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4790,33 +4810,33 @@
         <v>51</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C91" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E91" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="92" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C92" s="10" t="s">
         <v>130</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4824,112 +4844,129 @@
         <v>55</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C93" s="10" t="s">
         <v>131</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E93" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D94" s="10" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="94" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22" t="s">
+      <c r="E94" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="95" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="97" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="23" t="s">
+    <row r="97" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B97" s="23" t="s">
+    </row>
+    <row r="98" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="23" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>59</v>
+      <c r="B98" s="23" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="10" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="10" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B106" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="10" t="s">
         <v>55</v>
+      </c>
+      <c r="B107" s="10" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A27:I27"/>
+    <mergeCell ref="A28:I28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4963,7 +5000,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5039,7 +5076,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -5051,7 +5088,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -5063,7 +5100,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -5075,7 +5112,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="7"/>
@@ -5087,7 +5124,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="7"/>
@@ -5096,7 +5133,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="9"/>
@@ -5114,7 +5151,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="9"/>
@@ -5124,17 +5161,17 @@
     </row>
     <row r="17" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -5147,201 +5184,201 @@
     </row>
     <row r="20" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I20" s="15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K20" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M20" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N20" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O20" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="O21" s="7"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="O22" s="7"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F23" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5349,20 +5386,20 @@
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C28" s="20"/>
       <c r="J28" s="20"/>
@@ -5371,10 +5408,10 @@
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C29" s="20"/>
       <c r="J29" s="20"/>
@@ -5383,10 +5420,10 @@
     </row>
     <row r="30" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C30" s="20"/>
       <c r="J30" s="20"/>
@@ -5395,10 +5432,10 @@
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C31" s="20"/>
       <c r="J31" s="20"/>
@@ -5407,10 +5444,10 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,54 +5455,54 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
@@ -5475,10 +5512,10 @@
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C42" s="20"/>
       <c r="J42" s="20"/>
@@ -5487,10 +5524,10 @@
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C43" s="20"/>
       <c r="J43" s="20"/>
@@ -5499,10 +5536,10 @@
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C44" s="20"/>
       <c r="J44" s="20"/>
@@ -5519,100 +5556,100 @@
     </row>
     <row r="46" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C48" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="50" s="25" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="51" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C55" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5624,119 +5661,119 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D59" s="22"/>
     </row>
     <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60" s="23"/>
     </row>
     <row r="61" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="63" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="64" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="66" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="67" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="69" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B69" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -5775,7 +5812,7 @@
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5844,7 +5881,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C9" s="9"/>
       <c r="J9" s="9"/>
@@ -5855,7 +5892,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C10" s="9"/>
       <c r="J10" s="9"/>
@@ -5866,7 +5903,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C11" s="9"/>
       <c r="J11" s="9"/>
@@ -5877,7 +5914,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C12" s="9"/>
       <c r="J12" s="9"/>
@@ -5888,7 +5925,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C13" s="9"/>
       <c r="J13" s="9"/>
@@ -5899,7 +5936,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C14" s="9"/>
       <c r="J14" s="9"/>
@@ -5910,7 +5947,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C15" s="9"/>
       <c r="J15" s="7"/>
@@ -5921,7 +5958,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C16" s="9"/>
       <c r="J16" s="7"/>
@@ -5929,10 +5966,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C17" s="9"/>
       <c r="J17" s="7"/>
@@ -5947,7 +5984,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -5956,17 +5993,17 @@
     </row>
     <row r="20" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
@@ -5979,87 +6016,87 @@
     </row>
     <row r="23" s="15" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E23" s="15" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I23" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="J23" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>145</v>
-      </c>
       <c r="K23" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M23" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O23" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N24" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -6067,132 +6104,132 @@
     </row>
     <row r="25" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="N25" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="O25" s="27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="P25" s="27"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B27" s="26" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N27" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" s="5" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="20"/>
@@ -6201,7 +6238,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="20"/>
@@ -6210,10 +6247,10 @@
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C33" s="20"/>
       <c r="J33" s="20"/>
@@ -6221,10 +6258,10 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C34" s="20"/>
       <c r="J34" s="20"/>
@@ -6232,10 +6269,10 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6243,51 +6280,51 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -6296,10 +6333,10 @@
     </row>
     <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B45" s="20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" s="20"/>
       <c r="J45" s="20"/>
@@ -6307,10 +6344,10 @@
     </row>
     <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C46" s="20"/>
       <c r="J46" s="20"/>
@@ -6318,10 +6355,10 @@
     </row>
     <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B47" s="20" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C47" s="20"/>
       <c r="J47" s="20"/>
@@ -6336,78 +6373,78 @@
     </row>
     <row r="49" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B51" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="53" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="54" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="55" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="56" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="57" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6417,224 +6454,224 @@
     </row>
     <row r="58" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D59" s="22"/>
     </row>
     <row r="60" s="24" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="23" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B60" s="23" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C60" s="24" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E60" s="23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60" s="23"/>
     </row>
     <row r="61" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D61" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F61" s="25"/>
     </row>
     <row r="62" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D62" s="27" t="s">
+        <v>248</v>
+      </c>
+      <c r="E62" s="10" t="s">
         <v>249</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="D62" s="27" t="s">
-        <v>247</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>248</v>
       </c>
       <c r="F62" s="25"/>
     </row>
     <row r="63" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D63" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F63" s="25"/>
     </row>
     <row r="64" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D64" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F64" s="25"/>
     </row>
     <row r="65" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D65" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F65" s="25"/>
     </row>
     <row r="66" s="28" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D66" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F66" s="25"/>
     </row>
     <row r="67" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D67" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="D68" s="27" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="70" s="12" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="12" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="72" s="23" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B72" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="74" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" s="10" customFormat="true" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
